--- a/StructureDefinition-ObservationWaist-adultcheck.xlsx
+++ b/StructureDefinition-ObservationWaist-adultcheck.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://tsti.example.com/StructureDefinition/ObservationWaist-adultcheck</t>
+    <t>https://fhirisolationroom.azurehealthcareapis.com/StructureDefinition/ObservationWaist-adultcheck</t>
   </si>
   <si>
     <t>Version</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -1197,7 +1197,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://tsti.example.com/StructureDefinition/Patient-adultcheck)
+    <t xml:space="preserve">Reference(https://fhirisolationroom.azurehealthcareapis.com/StructureDefinition/Patient-adultcheck)
 </t>
   </si>
   <si>
